--- a/estatistica/lista de exercicios/Lista de Exercicios.xlsx
+++ b/estatistica/lista de exercicios/Lista de Exercicios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="247">
   <si>
     <t>Cliente</t>
   </si>
@@ -847,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,6 +877,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1824,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2307,19 +2313,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.81640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14" style="1"/>
+    <col min="2" max="5" width="14" style="1"/>
+    <col min="6" max="6" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2335,8 +2343,20 @@
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -2352,8 +2372,27 @@
       <c r="E2" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="11">
+        <f>AVERAGE(B2:B21)</f>
+        <v>7.2</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" ref="H2:J2" si="0">AVERAGE(C2:C21)</f>
+        <v>7.45</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -2369,8 +2408,27 @@
       <c r="E3" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="11">
+        <f>MEDIAN(B2:B21)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:J3" si="1">MEDIAN(C2:C21)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -2386,8 +2444,27 @@
       <c r="E4" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="1">
+        <f>MODE(B2:B21)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="2">MODE(C2:C21)</f>
+        <v>9</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -2403,8 +2480,27 @@
       <c r="E5" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="1">
+        <f>_xlfn.VAR.P(B2:B21)</f>
+        <v>4.26</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="3">_xlfn.VAR.P(C2:C21)</f>
+        <v>4.5475000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.96</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.74749999999999983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -2420,8 +2516,27 @@
       <c r="E6" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="1">
+        <f>_xlfn.STDEV.P(B2:B21)</f>
+        <v>2.0639767440550294</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:J6" si="4">_xlfn.STDEV.P(C2:C21)</f>
+        <v>2.1324868112136124</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86458082328952901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -2438,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
@@ -2455,7 +2570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -2472,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
@@ -2489,7 +2604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -2506,7 +2621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -2523,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -2540,7 +2655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -2557,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -2574,7 +2689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -2683,19 +2798,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.36328125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14" style="1"/>
+    <col min="2" max="5" width="14" style="1"/>
+    <col min="6" max="6" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -2711,8 +2828,20 @@
       <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
@@ -2728,8 +2857,27 @@
       <c r="E2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="11">
+        <f>AVERAGE(B2:B21)</f>
+        <v>39.75</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" ref="H2:J2" si="0">AVERAGE(C2:C21)</f>
+        <v>6060</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -2745,8 +2893,27 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="11">
+        <f>MEDIAN(B2:B21)</f>
+        <v>39.5</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:J3" si="1">MEDIAN(C2:C21)</f>
+        <v>5900</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>172</v>
       </c>
@@ -2762,8 +2929,27 @@
       <c r="E4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="1" t="e">
+        <f>MODE(B2:B21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="2">MODE(C2:C21)</f>
+        <v>6000</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>173</v>
       </c>
@@ -2779,8 +2965,27 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="1">
+        <f>_xlfn.VAR.P(B2:B21)</f>
+        <v>65.787499999999994</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="3">_xlfn.VAR.P(C2:C21)</f>
+        <v>3411400</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>3.64</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>174</v>
       </c>
@@ -2796,8 +3001,27 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="1">
+        <f>_xlfn.STDEV.P(B2:B21)</f>
+        <v>8.1109493895597691</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:J6" si="4">_xlfn.STDEV.P(C2:C21)</f>
+        <v>1846.9975636150687</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9078784028338913</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0535653752852738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>175</v>
       </c>
@@ -2814,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>176</v>
       </c>
@@ -2831,7 +3055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>177</v>
       </c>
@@ -2848,7 +3072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>178</v>
       </c>
@@ -2865,7 +3089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -2882,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -2899,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>181</v>
       </c>
@@ -2916,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>182</v>
       </c>
@@ -2933,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>183</v>
       </c>
@@ -2950,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
@@ -3059,19 +3283,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14" style="1"/>
+    <col min="2" max="5" width="14" style="1"/>
+    <col min="6" max="6" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -3087,8 +3313,20 @@
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>190</v>
       </c>
@@ -3104,8 +3342,27 @@
       <c r="E2" s="4">
         <v>8.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="11">
+        <f>AVERAGE(B2:B22)</f>
+        <v>7.6</v>
+      </c>
+      <c r="H2" s="11">
+        <f t="shared" ref="H2:J2" si="0">AVERAGE(C2:C22)</f>
+        <v>7.9</v>
+      </c>
+      <c r="I2" s="11">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" si="0"/>
+        <v>7.6980000000000022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>191</v>
       </c>
@@ -3121,8 +3378,27 @@
       <c r="E3" s="4">
         <v>7.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="11">
+        <f>MEDIAN(B2:B21)</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:J3" si="1">MEDIAN(C2:C21)</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>192</v>
       </c>
@@ -3138,8 +3414,27 @@
       <c r="E4" s="4">
         <v>8.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="1">
+        <f>MODE(B2:B21)</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="2">MODE(C2:C21)</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>193</v>
       </c>
@@ -3155,8 +3450,27 @@
       <c r="E5" s="4">
         <v>8.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="1">
+        <f>_xlfn.VAR.P(B2:B21)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="3">_xlfn.VAR.P(C2:C21)</f>
+        <v>0.69</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.65569599999997086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>194</v>
       </c>
@@ -3172,8 +3486,27 @@
       <c r="E6" s="4">
         <v>6.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="1">
+        <f>_xlfn.STDEV.P(B2:B21)</f>
+        <v>1.0677078252031311</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:J6" si="4">_xlfn.STDEV.P(C2:C21)</f>
+        <v>0.83066238629180744</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0677078252031311</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.80975057888214619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>195</v>
       </c>
@@ -3190,7 +3523,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>196</v>
       </c>
@@ -3207,7 +3540,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>197</v>
       </c>
@@ -3224,7 +3557,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>198</v>
       </c>
@@ -3241,7 +3574,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>199</v>
       </c>
@@ -3258,7 +3591,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>200</v>
       </c>
@@ -3275,7 +3608,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>201</v>
       </c>
@@ -3292,7 +3625,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>202</v>
       </c>
@@ -3309,7 +3642,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>203</v>
       </c>
@@ -3326,7 +3659,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>204</v>
       </c>
@@ -3435,19 +3768,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+      <selection activeCell="F6" activeCellId="1" sqref="F2:F6 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.1796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14" style="1"/>
+    <col min="2" max="5" width="14" style="1"/>
+    <col min="6" max="6" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3463,8 +3798,20 @@
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>210</v>
       </c>
@@ -3480,8 +3827,27 @@
       <c r="E2" s="4">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="12">
+        <f>AVERAGE(B2:B21)</f>
+        <v>2540</v>
+      </c>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2:J2" si="0">AVERAGE(C2:C21)</f>
+        <v>6.3</v>
+      </c>
+      <c r="I2" s="12">
+        <f t="shared" si="0"/>
+        <v>399.83500000000004</v>
+      </c>
+      <c r="J2" s="12">
+        <f t="shared" si="0"/>
+        <v>4.5299999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>211</v>
       </c>
@@ -3497,8 +3863,27 @@
       <c r="E3" s="4">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="12">
+        <f>MEDIAN(B2:B21)</f>
+        <v>2600</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:J3" si="1">MEDIAN(C2:C21)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>212</v>
       </c>
@@ -3514,8 +3899,27 @@
       <c r="E4" s="4">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="1">
+        <f>MODE(B2:B21)</f>
+        <v>1500</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="2">MODE(C2:C21)</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>213</v>
       </c>
@@ -3531,8 +3935,27 @@
       <c r="E5" s="4">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="1">
+        <f>_xlfn.VAR.P(B2:B21)</f>
+        <v>671400</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="3">_xlfn.VAR.P(C2:C21)</f>
+        <v>3.21</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>1525.1582750000009</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0100000000000023E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>166</v>
       </c>
@@ -3548,8 +3971,27 @@
       <c r="E6" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="1">
+        <f>_xlfn.STDEV.P(B2:B21)</f>
+        <v>819.39001702485973</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:J6" si="4">_xlfn.STDEV.P(C2:C21)</f>
+        <v>1.7916472867168918</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>39.053274830672024</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2647640458974746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -3566,7 +4008,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -3583,7 +4025,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>216</v>
       </c>
@@ -3600,7 +4042,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>217</v>
       </c>
@@ -3617,7 +4059,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>218</v>
       </c>
@@ -3634,7 +4076,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>219</v>
       </c>
@@ -3651,7 +4093,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>220</v>
       </c>
@@ -3668,7 +4110,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -3685,7 +4127,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>222</v>
       </c>
@@ -3702,7 +4144,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>223</v>
       </c>
@@ -3811,15 +4253,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -3838,8 +4283,23 @@
       <c r="F1" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>44562</v>
       </c>
@@ -3858,8 +4318,31 @@
       <c r="F2" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2">
+        <f>MEDIAN(B2:B37)</f>
+        <v>256.5</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:L2" si="0">MEDIAN(C2:C37)</f>
+        <v>1151</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>716.5</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>1460</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44593</v>
       </c>
@@ -3878,8 +4361,31 @@
       <c r="F3" s="3">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3">
+        <f>MEDIAN(B2:B37)</f>
+        <v>256.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:L3" si="1">MEDIAN(C2:C37)</f>
+        <v>1151</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>716.5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>1460</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44621</v>
       </c>
@@ -3898,8 +4404,31 @@
       <c r="F4" s="3">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4">
+        <f>MODE(B2:B37)</f>
+        <v>419</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:L4" si="2">MODE(C2:C37)</f>
+        <v>732</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>1335</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44652</v>
       </c>
@@ -3918,8 +4447,31 @@
       <c r="F5" s="3">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.VAR.P(B2:B37)</f>
+        <v>13116.212191358025</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:L5" si="3">_xlfn.VAR.P(C2:C37)</f>
+        <v>215641.76543209876</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>12033.508487654321</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>61475.388888888891</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>21256.230709876545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44682</v>
       </c>
@@ -3938,8 +4490,31 @@
       <c r="F6" s="3">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.STDEV.P(B2:B37)</f>
+        <v>114.52603281070215</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:L6" si="4">_xlfn.STDEV.P(C2:C37)</f>
+        <v>464.37244258471969</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>109.69734950150036</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>247.94230959819845</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>145.79516696336867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>44713</v>
       </c>
@@ -3959,7 +4534,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>44743</v>
       </c>
@@ -3979,7 +4554,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>44774</v>
       </c>
@@ -3999,7 +4574,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>44805</v>
       </c>
@@ -4019,7 +4594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>44835</v>
       </c>
@@ -4039,7 +4614,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>44866</v>
       </c>
@@ -4059,7 +4634,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>44896</v>
       </c>
@@ -4079,7 +4654,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>44927</v>
       </c>
@@ -4099,7 +4674,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>44958</v>
       </c>
@@ -4119,7 +4694,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>44986</v>
       </c>
@@ -4571,7 +5146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/estatistica/lista de exercicios/Lista de Exercicios.xlsx
+++ b/estatistica/lista de exercicios/Lista de Exercicios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cifais\Desktop\pos\Projetos_R\estatistica\lista de exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ead\Desktop\Thiago\Projetos_R\estatistica\lista de exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FD6B70-B316-4039-ACEB-E656C5BABAC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -22,8 +23,7 @@
     <sheet name="Disponibilidade" sheetId="8" r:id="rId8"/>
     <sheet name="Carros" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -797,7 +797,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0"/>
@@ -929,6 +929,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFAC3514"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -941,7 +946,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1085,7 +1090,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1186,6 +1190,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-708D-4A5F-9C1F-6262D087B172}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1268,9 +1277,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-708D-4A5F-9C1F-6262D087B172}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1354,6 +1365,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-708D-4A5F-9C1F-6262D087B172}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1489,6 +1505,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-708D-4A5F-9C1F-6262D087B172}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1556,6 +1575,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-708D-4A5F-9C1F-6262D087B172}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1713,6 +1737,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-708D-4A5F-9C1F-6262D087B172}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1805,6 +1832,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-708D-4A5F-9C1F-6262D087B172}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1955,6 +1987,9 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-708D-4A5F-9C1F-6262D087B172}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2021,6 +2056,1732 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-708D-4A5F-9C1F-6262D087B172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338244088"/>
+        <c:axId val="338237424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338243304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338244480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338244480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338243304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338237424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338244088"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="338244088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338237424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Pontuação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de Crédito</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4366342857059991"/>
+          <c:y val="2.7777588428163406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8643345153172271E-2"/>
+          <c:y val="0.2341228677618381"/>
+          <c:w val="0.95498064119232662"/>
+          <c:h val="0.73023039660100952"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pontuação de crédito</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.147090683624238E-3"/>
+                  <c:y val="-0.13240216093799434"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0980604557494978E-3"/>
+                  <c:y val="8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1961209114989955E-3"/>
+                  <c:y val="-0.10694020691145698"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0490302278747489E-3"/>
+                  <c:y val="-8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0490302278747489E-3"/>
+                  <c:y val="8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.10184781610614953"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0490302278747489E-3"/>
+                  <c:y val="-8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8441272050872742E-2"/>
+                  <c:y val="0.10694020691145696"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0490302278747489E-3"/>
+                  <c:y val="-6.1108689663689687E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="6.6201080468997073E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5130240444458735E-17"/>
+                  <c:y val="8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0490302278748243E-3"/>
+                  <c:y val="-0.1018478161061495"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0980604557494978E-3"/>
+                  <c:y val="9.675542530084201E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1470906836242475E-3"/>
+                  <c:y val="-0.106940206911457"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5026048088891747E-16"/>
+                  <c:y val="8.1478252884919583E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0980604557493477E-3"/>
+                  <c:y val="-6.620108046899717E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0980604557494978E-3"/>
+                  <c:y val="7.1293471274304687E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6392241822997991E-2"/>
+                  <c:y val="-0.1374945517433018"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1961209114989955E-3"/>
+                  <c:y val="9.6755425300841968E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AC3514"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>810</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5323816152618228E-2"/>
+                  <c:y val="0.34628257476090835"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{6A5AE04C-9ADF-49D2-B74E-156163D5989A}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>: </a:t>
+                    </a:r>
+                    <a:fld id="{9819B77A-E66C-4889-B4E2-0B60D4DD8F33}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>758.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIANA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9176725468993959E-2"/>
+                  <c:y val="0.4328534189389624"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E631BA72-29F2-4CCB-9C1A-68AFB33C51BF}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>: </a:t>
+                    </a:r>
+                    <a:fld id="{87E44D4F-2E53-4155-A5CB-38C12BC1F93A}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.17377825362605748"/>
+                      <c:h val="7.1217285900051996E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAIOR VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="30000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="67500"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="100000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1225755696868727E-2"/>
+                  <c:y val="-0.24952714946006624"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D1CCBF5F-41AA-4C3A-A690-2807FDD7C364}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>:</a:t>
+                    </a:r>
+                    <a:fld id="{516E684A-4EAF-4199-8CEF-992A4C4FD6C3}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="AC3514"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338243304"/>
+        <c:axId val="338244480"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR MINIMO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="30000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="67500"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="100000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1470906836242484E-2"/>
+                  <c:y val="0.37683691959275306"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{8D710D63-8CA8-4F7D-AB0E-63EF05417072}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>:</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{1E8AF832-25B6-4E94-87F6-145DAD08D836}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="AC3514"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-2E6B-4803-A5EA-18BC6C7DCDE0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2187,7 +3948,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2232,7 +3993,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2410,6 +4170,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E20-4E7D-B65B-8F17056FB723}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2541,6 +4306,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8E20-4E7D-B65B-8F17056FB723}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2695,7 +4465,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2773,7 +4542,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2818,7 +4587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2943,6 +4711,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C445-4860-8AEA-830766CB83BE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2986,6 +4759,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C445-4860-8AEA-830766CB83BE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -3004,8 +4782,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C445-4860-8AEA-830766CB83BE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3025,8 +4804,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C445-4860-8AEA-830766CB83BE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3112,6 +4892,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C445-4860-8AEA-830766CB83BE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="bestFit"/>
@@ -3134,7 +4919,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3212,7 +4996,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3262,7 +5046,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3440,6 +5223,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16A1-4FFC-A30C-02A013B0CFC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3571,6 +5359,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-16A1-4FFC-A30C-02A013B0CFC7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3725,7 +5518,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3803,7 +5595,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3848,7 +5640,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4013,6 +5804,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D9E-4B57-B5E3-3C75C478F1C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4131,6 +5927,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D9E-4B57-B5E3-3C75C478F1C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4317,7 +6118,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4395,7 +6195,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4437,7 +6237,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4589,6 +6388,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E44-432D-870E-7E779A98C977}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4707,6 +6511,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E44-432D-870E-7E779A98C977}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4838,7 +6647,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4908,7 +6716,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -4958,7 +6766,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5115,6 +6922,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-788A-4A44-8A61-FC22065678B4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5231,6 +7043,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-788A-4A44-8A61-FC22065678B4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5327,7 +7144,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5404,7 +7220,3504 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Renda</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42844901216326581"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2741351860126111E-2"/>
+          <c:y val="0.17301417809814842"/>
+          <c:w val="0.95498064119232662"/>
+          <c:h val="0.73023039660100952"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>renda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9575372702767979E-2"/>
+                  <c:y val="-0.18332606899106912"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4556013895094563E-2"/>
+                  <c:y val="0.10694020691145686"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0695017368868208E-2"/>
+                  <c:y val="0.24443475865475875"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.023167245628941E-2"/>
+                  <c:y val="0.13749455174330172"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0231672456289446E-2"/>
+                  <c:y val="0.20878802301760643"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1390034737735704E-3"/>
+                  <c:y val="-8.1478252884919583E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6370675930063056E-2"/>
+                  <c:y val="0.13240216093799423"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2509679403836701E-2"/>
+                  <c:y val="-4.5831517247767267E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2278006947547292E-2"/>
+                  <c:y val="4.5831517247767177E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.5031397910344332E-17"/>
+                  <c:y val="-0.12730977013268685"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.023167245628941E-2"/>
+                  <c:y val="9.6755425300841913E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.1853379650314514E-3"/>
+                  <c:y val="-6.620108046899717E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5006279582068866E-16"/>
+                  <c:y val="0.10184781610614949"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0463344912578819E-3"/>
+                  <c:y val="-8.147825288491968E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0926689825157639E-3"/>
+                  <c:y val="6.620108046899717E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1390034737736458E-3"/>
+                  <c:y val="-6.1108689663689687E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.023167245628941E-2"/>
+                  <c:y val="0.11712498852207182"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0463344912578819E-3"/>
+                  <c:y val="6.1108689663689687E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0463344912578969E-2"/>
+                  <c:y val="-0.13240216093799434"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1390034737736437E-2"/>
+                  <c:y val="-0.23934256833727827"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{A59E9F73-12AF-41C8-9580-5D37784845A5}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>: </a:t>
+                    </a:r>
+                    <a:fld id="{65D1968A-A7A5-416C-8CA8-4F9AE671D024}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.16797328615055318"/>
+                      <c:h val="7.1217285900051996E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIANA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.525103126396283E-2"/>
+                  <c:y val="-0.3360975926624663"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{A6B0DD6E-EC1F-497B-BCAA-E1627D293EDC}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>: </a:t>
+                    </a:r>
+                    <a:fld id="{2EDDC06C-8279-4D72-9554-664A390B11F7}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.17206595513306894"/>
+                      <c:h val="7.1217285900051996E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAIOR VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="30000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="67500"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="100000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2278006947547292E-2"/>
+                  <c:y val="-0.19605664502868381"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{E0574C37-E83E-4B9C-BB27-516465D01ED1}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>:</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{3EBF42EB-7271-490F-98FE-B33FE0C33446}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27552862701106745"/>
+                      <c:h val="0.12723358475843422"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338243304"/>
+        <c:axId val="338244480"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR MINIMO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4324341438805172E-2"/>
+                  <c:y val="0.19351085060168402"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-D4DE-4AC6-AF2B-2DCEFA4248F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338244088"/>
+        <c:axId val="338237424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338243304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338244480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338244480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338243304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338237424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338244088"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="338244088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338237424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gasto</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Mensal</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4366342857059991"/>
+          <c:y val="2.7777588428163406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2741351860126111E-2"/>
+          <c:y val="0.17301417809814842"/>
+          <c:w val="0.95498064119232662"/>
+          <c:h val="0.73023039660100952"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gasto mensal (em R$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0490302278747398E-3"/>
+                  <c:y val="-0.10694020691145696"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4588362734496969E-2"/>
+                  <c:y val="-4.0739126442459889E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.302963478536969E-2"/>
+                  <c:y val="-7.1293471274304632E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0245151139373746E-2"/>
+                  <c:y val="-0.106940206911457"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0980604557494978E-3"/>
+                  <c:y val="0.10184781610614958"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2294181367248531E-2"/>
+                  <c:y val="0.14258694254860926"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0490302278747489E-3"/>
+                  <c:y val="-8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1961209114989955E-3"/>
+                  <c:y val="9.675542530084201E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0245151139373746E-2"/>
+                  <c:y val="-6.6201080468997212E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0490302278747489E-3"/>
+                  <c:y val="7.6385862079612205E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0245151139373746E-2"/>
+                  <c:y val="-9.675542530084201E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5130240444458735E-17"/>
+                  <c:y val="6.6201080468997253E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.1470906836242475E-3"/>
+                  <c:y val="-7.1293471274304632E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0980604557494978E-3"/>
+                  <c:y val="8.6570643690227059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0980604557494978E-3"/>
+                  <c:y val="-0.10694020691145696"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5026048088891747E-16"/>
+                  <c:y val="5.6016298858382219E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0980604557493477E-3"/>
+                  <c:y val="-9.675542530084201E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4343211595123244E-2"/>
+                  <c:y val="0.1171249885220719"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7617997519866718E-2"/>
+                  <c:y val="-0.13240216093799442"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2294181367248495E-2"/>
+                  <c:y val="-0.12221737932737943"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-C37F-4094-A1E8-78959C16A6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1514898063166279E-2"/>
+                  <c:y val="-0.31572843041689036"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{3015E995-B021-4F5D-8936-8460B52B1AB8}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>:</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{751D79AA-0617-4892-BB85-F4967E66E77F}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="AC3514"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.1784398780649539"/>
+                      <c:h val="7.1217285900051996E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-C37F-4094-A1E8-78959C16A6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIANA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1514817392684866E-2"/>
+                  <c:y val="-0.41248345474207843"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{2FF00013-FA60-4CBA-B027-BC5BC1FDF5D7}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>;</a:t>
+                    </a:r>
+                    <a:fld id="{CA7C8D17-EE33-4516-8BA1-E2733CBE7548}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="AC3514"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.19073405943220242"/>
+                      <c:h val="7.1217285900051996E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="C00000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-C37F-4094-A1E8-78959C16A6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAIOR VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="30000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="67500"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="100000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2539332506622222E-2"/>
+                  <c:y val="-0.22915738575100936"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23613024346028608"/>
+                      <c:h val="7.1217285900051996E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-C37F-4094-A1E8-78959C16A6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338243304"/>
+        <c:axId val="338244480"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cliente!$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALOR MINIMO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="30000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="67500"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="00B050">
+                      <a:shade val="100000"/>
+                      <a:satMod val="115000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1470906836242484E-2"/>
+                  <c:y val="0.17823367818576161"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-C37F-4094-A1E8-78959C16A6B8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Cliente!$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-C37F-4094-A1E8-78959C16A6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="338244088"/>
+        <c:axId val="338237424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338243304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338244480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338244480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338243304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338237424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338244088"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="338244088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338237424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5684,6 +10997,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
@@ -6252,6 +11645,574 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
@@ -9332,6 +15293,1142 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9342,14 +16439,20 @@
       <xdr:rowOff>37012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>947058</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9379,7 +16482,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Gráfico 14"/>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9397,19 +16506,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5444</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>59869</xdr:rowOff>
+      <xdr:colOff>6805</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>148314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
+      <xdr:colOff>327933</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Gráfico 17"/>
+        <xdr:cNvPr id="18" name="Gráfico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9439,7 +16554,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Gráfico 18"/>
+        <xdr:cNvPr id="19" name="Gráfico 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9456,20 +16577,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>337458</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>59872</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17691</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>182337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>941615</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74839</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Gráfico 19"/>
+        <xdr:cNvPr id="20" name="Gráfico 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9487,19 +16614,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>183697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
+      <xdr:colOff>83004</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>151040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9516,20 +16649,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5444</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74839</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>4083</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8"/>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9539,6 +16678,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8166</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>78649</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E9A35D-0D9A-4B5F-9133-7DCE51862DAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3576C631-77E0-4FEF-8C34-79B9BED7A499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133078</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FFEBD3-237F-469C-808E-B86D0B164ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9843,24 +17096,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="6" width="14" style="1"/>
-    <col min="7" max="7" width="0.21875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="0.109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="0.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="0.140625" style="19" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -9899,7 +17152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>109</v>
       </c>
@@ -9946,7 +17199,7 @@
         <v>758.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>110</v>
       </c>
@@ -9993,7 +17246,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>111</v>
       </c>
@@ -10040,7 +17293,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
@@ -10087,7 +17340,7 @@
         <v>8032.75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>113</v>
       </c>
@@ -10134,7 +17387,7 @@
         <v>89.625610179233931</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>114</v>
       </c>
@@ -10181,7 +17434,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
@@ -10228,7 +17481,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>116</v>
       </c>
@@ -10263,7 +17516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>117</v>
       </c>
@@ -10298,7 +17551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>118</v>
       </c>
@@ -10326,7 +17579,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>119</v>
       </c>
@@ -10354,7 +17607,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>120</v>
       </c>
@@ -10382,7 +17635,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
@@ -10410,7 +17663,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>122</v>
       </c>
@@ -10438,7 +17691,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>123</v>
       </c>
@@ -10466,7 +17719,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>124</v>
       </c>
@@ -10494,7 +17747,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>125</v>
       </c>
@@ -10522,7 +17775,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>126</v>
       </c>
@@ -10550,7 +17803,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>127</v>
       </c>
@@ -10582,7 +17835,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -10614,71 +17867,77 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <f>CORREL(B2:B21,E2:E21)</f>
+        <v>0.91357879785432783</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10688,22 +17947,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -10732,7 +17991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>129</v>
       </c>
@@ -10768,7 +18027,7 @@
         <v>214.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
@@ -10804,7 +18063,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>131</v>
       </c>
@@ -10840,7 +18099,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -10876,7 +18135,7 @@
         <v>1655.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>133</v>
       </c>
@@ -10912,7 +18171,7 @@
         <v>40.69014008331748</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>134</v>
       </c>
@@ -10929,7 +18188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
@@ -10946,7 +18205,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>136</v>
       </c>
@@ -10963,7 +18222,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>137</v>
       </c>
@@ -10980,7 +18239,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
@@ -10997,7 +18256,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>139</v>
       </c>
@@ -11014,7 +18273,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>140</v>
       </c>
@@ -11031,7 +18290,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>141</v>
       </c>
@@ -11048,7 +18307,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>142</v>
       </c>
@@ -11065,7 +18324,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>143</v>
       </c>
@@ -11082,7 +18341,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>144</v>
       </c>
@@ -11099,7 +18358,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>145</v>
       </c>
@@ -11116,7 +18375,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>146</v>
       </c>
@@ -11133,7 +18392,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>147</v>
       </c>
@@ -11150,7 +18409,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>148</v>
       </c>
@@ -11173,22 +18432,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11217,7 +18476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -11253,7 +18512,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -11289,7 +18548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -11325,7 +18584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -11361,7 +18620,7 @@
         <v>0.74749999999999983</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -11397,7 +18656,7 @@
         <v>0.86458082328952901</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -11414,7 +18673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
@@ -11431,7 +18690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -11448,7 +18707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
@@ -11465,7 +18724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -11482,7 +18741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -11499,7 +18758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -11516,7 +18775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -11533,7 +18792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -11550,7 +18809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -11567,7 +18826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
@@ -11584,7 +18843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
@@ -11601,7 +18860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -11618,7 +18877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -11635,7 +18894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>169</v>
       </c>
@@ -11658,22 +18917,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -11702,7 +18961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
@@ -11738,7 +18997,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -11774,7 +19033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>172</v>
       </c>
@@ -11810,7 +19069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>173</v>
       </c>
@@ -11846,7 +19105,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>174</v>
       </c>
@@ -11882,7 +19141,7 @@
         <v>1.0535653752852738</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>175</v>
       </c>
@@ -11899,7 +19158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>176</v>
       </c>
@@ -11916,7 +19175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>177</v>
       </c>
@@ -11933,7 +19192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>178</v>
       </c>
@@ -11950,7 +19209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -11967,7 +19226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -11984,7 +19243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>181</v>
       </c>
@@ -12001,7 +19260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>182</v>
       </c>
@@ -12018,7 +19277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>183</v>
       </c>
@@ -12035,7 +19294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
@@ -12052,7 +19311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
@@ -12069,7 +19328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>186</v>
       </c>
@@ -12086,7 +19345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>187</v>
       </c>
@@ -12103,7 +19362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>188</v>
       </c>
@@ -12120,7 +19379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>189</v>
       </c>
@@ -12143,22 +19402,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -12187,7 +19446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>190</v>
       </c>
@@ -12223,7 +19482,7 @@
         <v>7.6980000000000022</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>191</v>
       </c>
@@ -12259,7 +19518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>192</v>
       </c>
@@ -12295,7 +19554,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>193</v>
       </c>
@@ -12331,7 +19590,7 @@
         <v>0.65569599999997086</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>194</v>
       </c>
@@ -12367,7 +19626,7 @@
         <v>0.80975057888214619</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>195</v>
       </c>
@@ -12384,7 +19643,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>196</v>
       </c>
@@ -12401,7 +19660,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>197</v>
       </c>
@@ -12418,7 +19677,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>198</v>
       </c>
@@ -12435,7 +19694,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>199</v>
       </c>
@@ -12452,7 +19711,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>200</v>
       </c>
@@ -12469,7 +19728,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>201</v>
       </c>
@@ -12486,7 +19745,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>202</v>
       </c>
@@ -12503,7 +19762,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>203</v>
       </c>
@@ -12520,7 +19779,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>204</v>
       </c>
@@ -12537,7 +19796,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>205</v>
       </c>
@@ -12554,7 +19813,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>206</v>
       </c>
@@ -12571,7 +19830,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>207</v>
       </c>
@@ -12588,7 +19847,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -12605,7 +19864,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -12628,22 +19887,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" activeCellId="1" sqref="F2:F6 F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12672,7 +19931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>210</v>
       </c>
@@ -12708,7 +19967,7 @@
         <v>4.5299999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>211</v>
       </c>
@@ -12744,7 +20003,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>212</v>
       </c>
@@ -12780,7 +20039,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>213</v>
       </c>
@@ -12816,7 +20075,7 @@
         <v>7.0100000000000023E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>166</v>
       </c>
@@ -12852,7 +20111,7 @@
         <v>0.2647640458974746</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -12869,7 +20128,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -12886,7 +20145,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>216</v>
       </c>
@@ -12903,7 +20162,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>217</v>
       </c>
@@ -12920,7 +20179,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>218</v>
       </c>
@@ -12937,7 +20196,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>219</v>
       </c>
@@ -12954,7 +20213,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>220</v>
       </c>
@@ -12971,7 +20230,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -12988,7 +20247,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>222</v>
       </c>
@@ -13005,7 +20264,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>223</v>
       </c>
@@ -13022,7 +20281,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>224</v>
       </c>
@@ -13039,7 +20298,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>225</v>
       </c>
@@ -13056,7 +20315,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>226</v>
       </c>
@@ -13073,7 +20332,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>227</v>
       </c>
@@ -13090,7 +20349,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>228</v>
       </c>
@@ -13113,19 +20372,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -13160,7 +20419,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44562</v>
       </c>
@@ -13203,7 +20462,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44593</v>
       </c>
@@ -13246,7 +20505,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44621</v>
       </c>
@@ -13289,7 +20548,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44652</v>
       </c>
@@ -13332,7 +20591,7 @@
         <v>21256.230709876545</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44682</v>
       </c>
@@ -13375,7 +20634,7 @@
         <v>145.79516696336867</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44713</v>
       </c>
@@ -13395,7 +20654,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44743</v>
       </c>
@@ -13415,7 +20674,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44774</v>
       </c>
@@ -13435,7 +20694,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44805</v>
       </c>
@@ -13455,7 +20714,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44835</v>
       </c>
@@ -13475,7 +20734,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44866</v>
       </c>
@@ -13495,7 +20754,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44896</v>
       </c>
@@ -13515,7 +20774,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44927</v>
       </c>
@@ -13535,7 +20794,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44958</v>
       </c>
@@ -13555,7 +20814,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44986</v>
       </c>
@@ -13575,7 +20834,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45017</v>
       </c>
@@ -13595,7 +20854,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45047</v>
       </c>
@@ -13615,7 +20874,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45078</v>
       </c>
@@ -13635,7 +20894,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45108</v>
       </c>
@@ -13655,7 +20914,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45139</v>
       </c>
@@ -13675,7 +20934,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45170</v>
       </c>
@@ -13695,7 +20954,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45200</v>
       </c>
@@ -13715,7 +20974,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45231</v>
       </c>
@@ -13735,7 +20994,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45261</v>
       </c>
@@ -13755,7 +21014,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>45292</v>
       </c>
@@ -13775,7 +21034,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45323</v>
       </c>
@@ -13795,7 +21054,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>45352</v>
       </c>
@@ -13815,7 +21074,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45383</v>
       </c>
@@ -13835,7 +21094,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>45413</v>
       </c>
@@ -13855,7 +21114,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45444</v>
       </c>
@@ -13875,7 +21134,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>45474</v>
       </c>
@@ -13895,7 +21154,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45505</v>
       </c>
@@ -13915,7 +21174,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>45536</v>
       </c>
@@ -13935,7 +21194,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45566</v>
       </c>
@@ -13955,7 +21214,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>45597</v>
       </c>
@@ -13975,7 +21234,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45627</v>
       </c>
@@ -14004,16 +21263,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -14033,7 +21292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -14053,7 +21312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -14073,7 +21332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -14093,7 +21352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -14113,7 +21372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -14133,7 +21392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -14153,7 +21412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -14173,7 +21432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -14193,7 +21452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
@@ -14213,7 +21472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
@@ -14233,7 +21492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -14253,7 +21512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
@@ -14273,7 +21532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>61</v>
       </c>
@@ -14293,7 +21552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -14313,7 +21572,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
@@ -14333,7 +21592,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
@@ -14353,7 +21612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -14373,7 +21632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
@@ -14393,7 +21652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>73</v>
       </c>
@@ -14413,7 +21672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>75</v>
       </c>
@@ -14439,22 +21698,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -14471,7 +21730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
@@ -14491,7 +21750,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>82</v>
       </c>
@@ -14511,7 +21770,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>84</v>
       </c>
@@ -14531,7 +21790,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>86</v>
       </c>
@@ -14551,7 +21810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>88</v>
       </c>
@@ -14571,7 +21830,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>90</v>
       </c>
@@ -14591,7 +21850,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
@@ -14608,7 +21867,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>94</v>
       </c>
@@ -14625,7 +21884,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -14642,7 +21901,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
@@ -14659,7 +21918,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
@@ -14676,7 +21935,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
@@ -14693,7 +21952,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>86</v>
       </c>
@@ -14710,7 +21969,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -14727,7 +21986,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>90</v>
       </c>
@@ -14744,7 +22003,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
@@ -14761,7 +22020,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>94</v>
       </c>
@@ -14778,7 +22037,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>96</v>
       </c>
@@ -14795,7 +22054,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -14812,7 +22071,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>

--- a/estatistica/lista de exercicios/Lista de Exercicios.xlsx
+++ b/estatistica/lista de exercicios/Lista de Exercicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ead\Desktop\Thiago\Projetos_R\estatistica\lista de exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FD6B70-B316-4039-ACEB-E656C5BABAC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA174D2F-335D-4A46-ADBF-8E95CFF27A58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16476,7 +16476,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>16328</xdr:colOff>
+      <xdr:colOff>27214</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>5444</xdr:rowOff>
     </xdr:to>
@@ -17100,7 +17100,7 @@
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/estatistica/lista de exercicios/Lista de Exercicios.xlsx
+++ b/estatistica/lista de exercicios/Lista de Exercicios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago\OneDrive\Área de Trabalho\pos\Projetos_R\estatistica\lista de exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cifais\Desktop\pos\Projetos_R\estatistica\lista de exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C57BCA-0076-490E-8070-F7ACAFA4446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198A9045-51BC-4C10-9CAF-FC27BD6A77F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -24,32 +24,24 @@
     <sheet name="Carros" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Empresa!$C$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Empresa!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Empresa!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Empresa!$B$2:$B$22</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Satisfação!$C$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Satisfação!$C$2:$C$21</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Satisfação!$D$1</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Satisfação!$D$2:$D$21</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Satisfação!$E$1</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Satisfação!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Satisfação!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Satisfação!$B$2:$B$21</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Satisfação!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Satisfação!$C$2:$C$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Empresa!$E$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Satisfação!$D$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Satisfação!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Satisfação!$E$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Satisfação!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Empresa!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Empresa!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Empresa!$B$2:$B$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Empresa!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Empresa!$D$2:$D$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Empresa!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Empresa!$C$2:$C$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Empresa!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Empresa!$D$2:$D$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Empresa!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Empresa!$E$2:$E$21</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Satisfação!$B$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Satisfação!$B$2:$B$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="267">
   <si>
     <t>Cliente</t>
   </si>
@@ -929,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,9 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,17 +971,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14303,7 +14289,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -20263,6 +20249,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="731672240"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -22085,6 +22072,3005 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>IDADES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48703801945181247"/>
+          <c:y val="3.2313092180230263E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7605633802816902E-2"/>
+          <c:y val="0.219994965251985"/>
+          <c:w val="0.95696400625978095"/>
+          <c:h val="0.72235304313375925"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Idade (anos)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7239893112662701E-3"/>
+                  <c:y val="-4.2432798957259446E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5159-4EEE-AA98-EBF474CB046B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.3003288077868453E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-5159-4EEE-AA98-EBF474CB046B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2642442236047783E-16"/>
+                  <c:y val="-4.2432798957259446E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-5159-4EEE-AA98-EBF474CB046B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.8288532638172961E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-5159-4EEE-AA98-EBF474CB046B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Satisfação!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Rafaela Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diego Santos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Juliana Lima</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lucas Costa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bruna Silva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcelo Almeida</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camila Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Felipe Pereira</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Larissa Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gabriel Souza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vitória Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thiago Martins</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Marina Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Eduardo Vieira</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Isabela Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renato Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jéssica Pereira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Andréa Santos</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Daniel Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ana Carolina Lima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5159-4EEE-AA98-EBF474CB046B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="389474552"/>
+        <c:axId val="389482784"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIANA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12378759094213301"/>
+                  <c:y val="-0.27156508719884498"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MEDIA: </a:t>
+                    </a:r>
+                    <a:fld id="{8AF29513-2282-4A91-8F88-24769608491A}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5159-4EEE-AA98-EBF474CB046B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.21035072322709081"/>
+                  <c:y val="-0.28312180663488601"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MEDIANA: </a:t>
+                    </a:r>
+                    <a:fld id="{0E64829B-61F6-475C-9128-BCA02B42D48B}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5159-4EEE-AA98-EBF474CB046B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Satisfação!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Rafaela Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diego Santos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Juliana Lima</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lucas Costa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bruna Silva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcelo Almeida</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camila Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Felipe Pereira</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Larissa Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gabriel Souza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vitória Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thiago Martins</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Marina Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Eduardo Vieira</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Isabela Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renato Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jéssica Pereira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Andréa Santos</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Daniel Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ana Carolina Lima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$G$2:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5159-4EEE-AA98-EBF474CB046B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAIOR VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="6"/>
+              <c:spPr>
+                <a:gradFill rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent4">
+                        <a:satMod val="103000"/>
+                        <a:lumMod val="102000"/>
+                        <a:tint val="94000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent4">
+                        <a:satMod val="110000"/>
+                        <a:lumMod val="100000"/>
+                        <a:shade val="100000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="99000"/>
+                        <a:satMod val="120000"/>
+                        <a:shade val="78000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="63000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-5159-4EEE-AA98-EBF474CB046B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7923454874579782E-2"/>
+                  <c:y val="-0.18083128934454135"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8EAF86B6-9692-4789-A046-682D784E0D24}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>:</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{06FB80A2-CE6E-40CA-AB41-0D209230A9B0}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5159-4EEE-AA98-EBF474CB046B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Satisfação!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Rafaela Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diego Santos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Juliana Lima</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lucas Costa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bruna Silva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcelo Almeida</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camila Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Felipe Pereira</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Larissa Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gabriel Souza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vitória Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thiago Martins</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Marina Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Eduardo Vieira</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Isabela Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renato Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jéssica Pereira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Andréa Santos</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Daniel Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ana Carolina Lima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5159-4EEE-AA98-EBF474CB046B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MENOR VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.2585983966899405"/>
+                  <c:y val="-0.3246877588242959"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DE8B72A9-1FDE-4FC9-BAAF-56E93B332318}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[NOME DA SÉRIE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>: </a:t>
+                    </a:r>
+                    <a:fld id="{9D257550-C8B8-4F73-B4E3-73F56360B4C4}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5159-4EEE-AA98-EBF474CB046B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5159-4EEE-AA98-EBF474CB046B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="389474552"/>
+        <c:axId val="389482784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="389474552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389482784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389482784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389474552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>RENDA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48703801945181247"/>
+          <c:y val="3.2313092180230263E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7605633802816902E-2"/>
+          <c:y val="0.219994965251985"/>
+          <c:w val="0.95696400625978095"/>
+          <c:h val="0.72235304313375925"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Renda (R$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4479786225325403E-3"/>
+                  <c:y val="-6.6006576155736907E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-303B-41CD-A8AF-C7BF890185E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.3003288077868453E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-303B-41CD-A8AF-C7BF890185E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8959572450650805E-3"/>
+                  <c:y val="-1.8859021758781975E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-303B-41CD-A8AF-C7BF890185E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Satisfação!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Rafaela Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diego Santos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Juliana Lima</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lucas Costa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bruna Silva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcelo Almeida</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camila Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Felipe Pereira</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Larissa Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gabriel Souza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vitória Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thiago Martins</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Marina Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Eduardo Vieira</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Isabela Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renato Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jéssica Pereira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Andréa Santos</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Daniel Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ana Carolina Lima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-303B-41CD-A8AF-C7BF890185E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="389474552"/>
+        <c:axId val="389482784"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$F$2:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MEDIANA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7583828980260322E-2"/>
+                  <c:y val="-0.28288532638172964"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MÉDIA</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{355B8366-E386-4025-A681-D2AC5EAF2BFE}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="borderCallout1">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-303B-41CD-A8AF-C7BF890185E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8271700715455564E-2"/>
+                  <c:y val="-0.19330497302751523"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>MEDANA</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{3DEB4773-E016-4F0C-83BC-6C8F3875FB6B}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALOR]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="borderCallout2">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-303B-41CD-A8AF-C7BF890185E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Satisfação!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Rafaela Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diego Santos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Juliana Lima</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lucas Costa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bruna Silva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcelo Almeida</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camila Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Felipe Pereira</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Larissa Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gabriel Souza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vitória Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thiago Martins</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Marina Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Eduardo Vieira</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Isabela Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renato Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jéssica Pereira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Andréa Santos</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Daniel Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ana Carolina Lima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-303B-41CD-A8AF-C7BF890185E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAIOR VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3095422808378583E-2"/>
+                  <c:y val="-0.23102301654507917"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-303B-41CD-A8AF-C7BF890185E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E6E6">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRoundRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Satisfação!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Rafaela Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diego Santos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Juliana Lima</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lucas Costa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bruna Silva</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Marcelo Almeida</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Camila Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Felipe Pereira</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Larissa Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gabriel Souza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Vitória Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thiago Martins</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Marina Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Eduardo Vieira</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Isabela Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renato Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jéssica Pereira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Andréa Santos</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Daniel Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ana Carolina Lima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-303B-41CD-A8AF-C7BF890185E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MENOR VALOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1137832945435738"/>
+                  <c:y val="3.3003288077868453E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="borderCallout1">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-303B-41CD-A8AF-C7BF890185E6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeEllipseCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-303B-41CD-A8AF-C7BF890185E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="389474552"/>
+        <c:axId val="389482784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="389474552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389482784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389482784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389474552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -28272,7 +31258,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -28310,7 +31296,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4D441A52-DC58-4BE8-9152-83D2784EB368}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Receita Anual (em milhões de R$)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -28346,7 +31332,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -28384,7 +31370,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AB864B0E-B4C0-4A43-AE1D-E9DCDEB76343}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Despesas Anuais (em milhões de R$)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -28427,7 +31413,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -28465,7 +31451,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A425CAD9-AC0A-43B7-8D23-8805B7F245BF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Lucro Anual (em milhões de R$)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -28496,7 +31482,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -28534,7 +31520,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A2C42036-6079-4AC4-86DA-16743DF36A98}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Número de Funcionários</cx:v>
             </cx:txData>
           </cx:tx>
@@ -29576,6 +32562,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -42498,6 +45564,1032 @@
             <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -46410,8 +50502,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8410575" y="14149387"/>
-              <a:ext cx="4914900" cy="2743200"/>
+              <a:off x="8648700" y="13402627"/>
+              <a:ext cx="5029200" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -46488,8 +50580,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8401050" y="16921162"/>
-              <a:ext cx="4914900" cy="2743200"/>
+              <a:off x="8639175" y="16067722"/>
+              <a:ext cx="5029200" cy="2628900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -46566,8 +50658,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13344525" y="14120812"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="13696950" y="13374052"/>
+              <a:ext cx="4705350" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -46644,8 +50736,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13363575" y="16883062"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="13716000" y="16029622"/>
+              <a:ext cx="4705350" cy="2628900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -46917,8 +51009,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7219949" y="4424362"/>
-              <a:ext cx="5791201" cy="2824163"/>
+              <a:off x="7404734" y="4249102"/>
+              <a:ext cx="5951221" cy="2709863"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -46995,7 +51087,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47015,6 +51107,87 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C8900E-B93C-4340-A21B-F26C9947643C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4B1018-2A93-4A15-988B-361DA74683A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -47320,64 +51493,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
     <col min="2" max="6" width="14" style="1"/>
-    <col min="7" max="7" width="0.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="0.140625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="0.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="3">
@@ -47392,39 +51565,39 @@
       <c r="E2" s="3">
         <v>750</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="9">
         <f>IF(F2="Homem",C2,"")</f>
         <v>5000</v>
       </c>
-      <c r="H2" s="18" t="str">
+      <c r="H2" s="9" t="str">
         <f>IF(F2="Mulher",C2,"")</f>
         <v/>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <f>AVERAGE(B2:B21)</f>
         <v>39.75</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <f>AVERAGE(C2:C21)</f>
         <v>6060</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <f>AVERAGE(D2:D21)</f>
         <v>2925</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <f>AVERAGE(E2:E21)</f>
         <v>758.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B3" s="3">
@@ -47439,39 +51612,39 @@
       <c r="E3" s="3">
         <v>600</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="18" t="str">
+      <c r="G3" s="9" t="str">
         <f t="shared" ref="G3:G21" si="0">IF(F3="Homem",C3,"")</f>
         <v/>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="9">
         <f t="shared" ref="H3:H21" si="1">IF(F3="Mulher",C3,"")</f>
         <v>3500</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <f>MEDIAN(B2:B21)</f>
         <v>39.5</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <f>MEDIAN(C2:C21)</f>
         <v>5900</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <f>MEDIAN(D2:D21)</f>
         <v>2800</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <f>MEDIAN(E2:E21)</f>
         <v>775</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="3">
@@ -47486,39 +51659,39 @@
       <c r="E4" s="3">
         <v>850</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="H4" s="18" t="str">
+      <c r="H4" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="15" t="e">
+      <c r="J4" s="14" t="e">
         <f>MODE(B2:B21)</f>
         <v>#N/A</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <f>MODE(C2:C21)</f>
         <v>6000</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <f>MODE(D2:D21)</f>
         <v>2800</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <f>MODE(E2:E21)</f>
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="3">
@@ -47533,39 +51706,39 @@
       <c r="E5" s="3">
         <v>780</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="18" t="str">
+      <c r="G5" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <f>_xlfn.VAR.P(B2:B21)</f>
         <v>65.787499999999994</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <f>_xlfn.VAR.P(C2:C21)</f>
         <v>3411400</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <f>_xlfn.VAR.P(D2:D21)</f>
         <v>1024875</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <f>_xlfn.VAR.P(E2:E21)</f>
         <v>8032.75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="3">
@@ -47580,39 +51753,39 @@
       <c r="E6" s="3">
         <v>620</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="H6" s="18" t="str">
+      <c r="H6" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>_xlfn.STDEV.P(B2:B21)</f>
         <v>8.1109493895597691</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>_xlfn.STDEV.P(C2:C21)</f>
         <v>1846.9975636150687</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f>_xlfn.STDEV.P(D2:D21)</f>
         <v>1012.3611015838172</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <f>_xlfn.STDEV.P(E2:E21)</f>
         <v>89.625610179233931</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B7" s="3">
@@ -47627,39 +51800,39 @@
       <c r="E7" s="3">
         <v>800</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>7000</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <f>MAX(B2:B21)</f>
         <v>55</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>MAX(C2:C21)</f>
         <v>10000</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f>MAX(D2:D21)</f>
         <v>5000</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <f>MAX(E2:E21)</f>
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="3">
@@ -47674,39 +51847,39 @@
       <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H8" s="18" t="str">
+      <c r="H8" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f>MIN(B2:B21)</f>
         <v>25</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f>MIN(C2:C21)</f>
         <v>3000</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <f>MIN(D2:D21)</f>
         <v>1200</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <f>MIN(E2:E21)</f>
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B9" s="3">
@@ -47721,18 +51894,18 @@
       <c r="E9" s="3">
         <v>760</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G9" s="18" t="str">
+      <c r="G9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="9">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>249</v>
       </c>
       <c r="J9" s="9">
@@ -47740,8 +51913,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B10" s="3">
@@ -47756,18 +51929,18 @@
       <c r="E10" s="3">
         <v>880</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="H10" s="18" t="str">
+      <c r="H10" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>250</v>
       </c>
       <c r="J10" s="9">
@@ -47775,8 +51948,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>118</v>
       </c>
       <c r="B11" s="3">
@@ -47791,18 +51964,18 @@
       <c r="E11" s="3">
         <v>580</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G11" s="18" t="str">
+      <c r="G11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>253</v>
       </c>
       <c r="J11" s="9">
@@ -47810,8 +51983,8 @@
         <v>0.9098249489708462</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B12" s="3">
@@ -47826,18 +51999,18 @@
       <c r="E12" s="3">
         <v>780</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="H12" s="18" t="str">
+      <c r="H12" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>254</v>
       </c>
       <c r="J12" s="9">
@@ -47845,8 +52018,8 @@
         <v>0.91962698721380587</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B13" s="3">
@@ -47861,18 +52034,18 @@
       <c r="E13" s="3">
         <v>700</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G13" s="18" t="str">
+      <c r="G13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>255</v>
       </c>
       <c r="J13" s="9">
@@ -47880,8 +52053,8 @@
         <v>0.91357879785432783</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="3">
@@ -47896,18 +52069,18 @@
       <c r="E14" s="3">
         <v>820</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="H14" s="18" t="str">
+      <c r="H14" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>256</v>
       </c>
       <c r="J14" s="9">
@@ -47915,8 +52088,8 @@
         <v>0.99634806712629098</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B15" s="3">
@@ -47931,18 +52104,18 @@
       <c r="E15" s="3">
         <v>730</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G15" s="18" t="str">
+      <c r="G15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>257</v>
       </c>
       <c r="J15" s="9">
@@ -47950,8 +52123,8 @@
         <v>0.95681794276563403</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="3">
@@ -47966,18 +52139,18 @@
       <c r="E16" s="3">
         <v>790</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="H16" s="18" t="str">
+      <c r="H16" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>258</v>
       </c>
       <c r="J16" s="9">
@@ -47985,8 +52158,8 @@
         <v>0.95926551707199659</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>124</v>
       </c>
       <c r="B17" s="3">
@@ -48001,20 +52174,20 @@
       <c r="E17" s="3">
         <v>640</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G17" s="18" t="str">
+      <c r="G17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="9">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="3">
@@ -48029,20 +52202,20 @@
       <c r="E18" s="3">
         <v>870</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="H18" s="18" t="str">
+      <c r="H18" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="3">
@@ -48057,20 +52230,20 @@
       <c r="E19" s="3">
         <v>740</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G19" s="18" t="str">
+      <c r="G19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="9">
         <f t="shared" si="1"/>
         <v>5200</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B20" s="3">
@@ -48085,24 +52258,20 @@
       <c r="E20" s="3">
         <v>770</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="G20" s="18" t="str">
+      <c r="G20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="9">
         <f t="shared" si="1"/>
         <v>5800</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B21" s="3">
@@ -48117,87 +52286,17 @@
       <c r="E21" s="3">
         <v>810</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="9">
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="H21" s="18" t="str">
+      <c r="H21" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -48212,47 +52311,47 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="3">
@@ -48267,7 +52366,7 @@
       <c r="E2" s="3">
         <v>200</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>242</v>
       </c>
       <c r="G2" s="3">
@@ -48287,8 +52386,8 @@
         <v>214.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="3">
@@ -48303,7 +52402,7 @@
       <c r="E3" s="3">
         <v>250</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>243</v>
       </c>
       <c r="G3" s="3">
@@ -48323,8 +52422,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="3">
@@ -48339,7 +52438,7 @@
       <c r="E4" s="3">
         <v>150</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>244</v>
       </c>
       <c r="G4" s="3" t="e">
@@ -48359,8 +52458,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B5" s="3">
@@ -48375,7 +52474,7 @@
       <c r="E5" s="3">
         <v>300</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G5" s="3">
@@ -48395,8 +52494,8 @@
         <v>1655.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="3">
@@ -48411,7 +52510,7 @@
       <c r="E6" s="3">
         <v>180</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G6" s="3">
@@ -48431,8 +52530,8 @@
         <v>40.69014008331748</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="3">
@@ -48447,7 +52546,7 @@
       <c r="E7" s="3">
         <v>220</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>248</v>
       </c>
       <c r="G7" s="3">
@@ -48467,8 +52566,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B8" s="3">
@@ -48483,7 +52582,7 @@
       <c r="E8" s="3">
         <v>190</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>247</v>
       </c>
       <c r="G8" s="3">
@@ -48503,8 +52602,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="3">
@@ -48519,7 +52618,7 @@
       <c r="E9" s="3">
         <v>160</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>259</v>
       </c>
       <c r="G9" s="3">
@@ -48539,8 +52638,8 @@
         <v>0.94477822517932841</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="3">
@@ -48555,7 +52654,7 @@
       <c r="E10" s="3">
         <v>170</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>260</v>
       </c>
       <c r="G10" s="3">
@@ -48575,8 +52674,8 @@
         <v>0.93321245848182599</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="3">
@@ -48591,7 +52690,7 @@
       <c r="E11" s="3">
         <v>210</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>261</v>
       </c>
       <c r="G11" s="3">
@@ -48611,8 +52710,8 @@
         <v>0.60344704409834737</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>139</v>
       </c>
       <c r="B12" s="3">
@@ -48627,7 +52726,7 @@
       <c r="E12" s="3">
         <v>240</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>262</v>
       </c>
       <c r="G12" s="3">
@@ -48647,8 +52746,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B13" s="3">
@@ -48668,8 +52767,8 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="3">
@@ -48684,7 +52783,7 @@
       <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>265</v>
       </c>
       <c r="G14" s="3">
@@ -48695,8 +52794,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>142</v>
       </c>
       <c r="B15" s="3">
@@ -48711,7 +52810,7 @@
       <c r="E15" s="3">
         <v>230</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>264</v>
       </c>
       <c r="G15" s="3">
@@ -48722,8 +52821,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="3">
@@ -48738,7 +52837,7 @@
       <c r="E16" s="3">
         <v>175</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>263</v>
       </c>
       <c r="G16" s="3">
@@ -48749,8 +52848,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>144</v>
       </c>
       <c r="B17" s="3">
@@ -48766,8 +52865,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>145</v>
       </c>
       <c r="B18" s="3">
@@ -48783,8 +52882,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>146</v>
       </c>
       <c r="B19" s="3">
@@ -48800,8 +52899,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B20" s="3">
@@ -48817,8 +52916,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B21" s="3">
@@ -48844,49 +52943,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -48902,14 +53001,14 @@
       <c r="E2" s="4">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>242</v>
       </c>
       <c r="G2" s="4">
         <f>AVERAGE(B2:B21)</f>
         <v>7.2</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="18">
         <f>AVERAGE(C2:C21)</f>
         <v>7.45</v>
       </c>
@@ -48922,7 +53021,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -48938,14 +53037,14 @@
       <c r="E3" s="4">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>243</v>
       </c>
       <c r="G3" s="4">
         <f>MEDIAN(B2:B21)</f>
         <v>7.5</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <f>MEDIAN(C2:C21)</f>
         <v>7.5</v>
       </c>
@@ -48958,7 +53057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -48974,7 +53073,7 @@
       <c r="E4" s="4">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>244</v>
       </c>
       <c r="G4" s="4">
@@ -48994,7 +53093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -49010,7 +53109,7 @@
       <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G5" s="4">
@@ -49030,7 +53129,7 @@
         <v>0.74749999999999983</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -49046,7 +53145,7 @@
       <c r="E6" s="4">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G6" s="4">
@@ -49066,7 +53165,7 @@
         <v>0.86458082328952901</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -49082,7 +53181,7 @@
       <c r="E7" s="4">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>248</v>
       </c>
       <c r="G7" s="4">
@@ -49102,7 +53201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
@@ -49118,7 +53217,7 @@
       <c r="E8" s="4">
         <v>8</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>266</v>
       </c>
       <c r="G8" s="4">
@@ -49138,7 +53237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -49155,7 +53254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
@@ -49172,7 +53271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -49189,7 +53288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -49206,7 +53305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -49223,7 +53322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -49240,7 +53339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -49257,7 +53356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -49274,7 +53373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
@@ -49291,7 +53390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
@@ -49308,7 +53407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -49325,7 +53424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -49342,7 +53441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>169</v>
       </c>
@@ -49370,19 +53469,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -49411,7 +53510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
@@ -49430,24 +53529,24 @@
       <c r="F2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="19">
         <f>AVERAGE(B2:B21)</f>
         <v>39.75</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="19">
         <f>AVERAGE(C2:C21)</f>
         <v>6060</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="19">
         <f>AVERAGE(D2:D21)</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="19">
         <f>AVERAGE(E2:E21)</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -49466,24 +53565,24 @@
       <c r="F3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="19">
         <f>MEDIAN(B2:B21)</f>
         <v>39.5</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="19">
         <f>MEDIAN(C2:C21)</f>
         <v>5900</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="19">
         <f>MEDIAN(D2:D21)</f>
         <v>16</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="19">
         <f>MEDIAN(E2:E21)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>172</v>
       </c>
@@ -49502,24 +53601,24 @@
       <c r="F4" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="1" t="e">
+      <c r="G4" s="19" t="e">
         <f>MODE(B2:B21)</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="19">
         <f>MODE(C2:C21)</f>
         <v>6000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="19">
         <f>MODE(D2:D21)</f>
         <v>16</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="19">
         <f>MODE(E2:E21)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>173</v>
       </c>
@@ -49538,24 +53637,24 @@
       <c r="F5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="19">
         <f>_xlfn.VAR.P(B2:B21)</f>
         <v>65.787499999999994</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="19">
         <f>_xlfn.VAR.P(C2:C21)</f>
         <v>3411400</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="19">
         <f>_xlfn.VAR.P(D2:D21)</f>
         <v>3.64</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="19">
         <f>_xlfn.VAR.P(E2:E21)</f>
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>174</v>
       </c>
@@ -49574,24 +53673,24 @@
       <c r="F6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="19">
         <f>_xlfn.STDEV.P(B2:B21)</f>
         <v>8.1109493895597691</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="19">
         <f>_xlfn.STDEV.P(C2:C21)</f>
         <v>1846.9975636150687</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="19">
         <f>_xlfn.STDEV.P(D2:D21)</f>
         <v>1.9078784028338913</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="19">
         <f>_xlfn.STDEV.P(E2:E21)</f>
         <v>1.0535653752852738</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>175</v>
       </c>
@@ -49607,8 +53706,27 @@
       <c r="E7" s="4">
         <v>2</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="19">
+        <f>MAX(B2:B22)</f>
+        <v>55</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" ref="H7:J7" si="0">MAX(C2:C22)</f>
+        <v>10000</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>176</v>
       </c>
@@ -49624,8 +53742,27 @@
       <c r="E8" s="4">
         <v>4</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="19">
+        <f>MIN(B2:B21)</f>
+        <v>25</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" ref="H8:J8" si="1">MIN(C2:C21)</f>
+        <v>3000</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>177</v>
       </c>
@@ -49642,7 +53779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>178</v>
       </c>
@@ -49659,7 +53796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -49676,7 +53813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -49693,7 +53830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>181</v>
       </c>
@@ -49710,7 +53847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>182</v>
       </c>
@@ -49727,7 +53864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>183</v>
       </c>
@@ -49744,7 +53881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
@@ -49761,7 +53898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
@@ -49778,7 +53915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>186</v>
       </c>
@@ -49795,7 +53932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>187</v>
       </c>
@@ -49812,7 +53949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>188</v>
       </c>
@@ -49829,7 +53966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>189</v>
       </c>
@@ -49848,6 +53985,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -49855,19 +53994,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -49896,7 +54035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>190</v>
       </c>
@@ -49915,24 +54054,24 @@
       <c r="F2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <f>AVERAGE(B2:B22)</f>
         <v>7.6</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <f>AVERAGE(C2:C22)</f>
         <v>7.9</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <f>AVERAGE(D2:D22)</f>
         <v>2.4</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <f>AVERAGE(E2:E22)</f>
         <v>7.6980000000000022</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>191</v>
       </c>
@@ -49951,24 +54090,24 @@
       <c r="F3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>MEDIAN(B2:B21)</f>
         <v>8</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f>MEDIAN(C2:C21)</f>
         <v>8</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f>MEDIAN(D2:D21)</f>
         <v>2</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f>MEDIAN(E2:E21)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>192</v>
       </c>
@@ -50004,7 +54143,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>193</v>
       </c>
@@ -50040,7 +54179,7 @@
         <v>0.65569599999997086</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>194</v>
       </c>
@@ -50076,7 +54215,7 @@
         <v>0.80975057888214619</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>195</v>
       </c>
@@ -50093,7 +54232,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>196</v>
       </c>
@@ -50110,7 +54249,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>197</v>
       </c>
@@ -50127,7 +54266,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>198</v>
       </c>
@@ -50144,7 +54283,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>199</v>
       </c>
@@ -50161,7 +54300,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>200</v>
       </c>
@@ -50178,7 +54317,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>201</v>
       </c>
@@ -50195,7 +54334,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>202</v>
       </c>
@@ -50212,7 +54351,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>203</v>
       </c>
@@ -50229,7 +54368,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>204</v>
       </c>
@@ -50246,7 +54385,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>205</v>
       </c>
@@ -50263,7 +54402,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>206</v>
       </c>
@@ -50280,7 +54419,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>207</v>
       </c>
@@ -50297,7 +54436,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -50314,7 +54453,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -50344,15 +54483,15 @@
       <selection activeCell="F6" activeCellId="1" sqref="F2:F6 F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -50381,7 +54520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>210</v>
       </c>
@@ -50400,24 +54539,24 @@
       <c r="F2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f>AVERAGE(B2:B21)</f>
         <v>2540</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f>AVERAGE(C2:C21)</f>
         <v>6.3</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <f>AVERAGE(D2:D21)</f>
         <v>399.83500000000004</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <f>AVERAGE(E2:E21)</f>
         <v>4.5299999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>211</v>
       </c>
@@ -50436,24 +54575,24 @@
       <c r="F3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <f>MEDIAN(B2:B21)</f>
         <v>2600</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <f>MEDIAN(C2:C21)</f>
         <v>6.5</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <f>MEDIAN(D2:D21)</f>
         <v>400</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <f>MEDIAN(E2:E21)</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>212</v>
       </c>
@@ -50489,7 +54628,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>213</v>
       </c>
@@ -50525,7 +54664,7 @@
         <v>7.0100000000000023E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>166</v>
       </c>
@@ -50561,7 +54700,7 @@
         <v>0.2647640458974746</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -50578,7 +54717,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -50595,7 +54734,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>216</v>
       </c>
@@ -50612,7 +54751,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>217</v>
       </c>
@@ -50629,7 +54768,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>218</v>
       </c>
@@ -50646,7 +54785,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>219</v>
       </c>
@@ -50663,7 +54802,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>220</v>
       </c>
@@ -50680,7 +54819,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -50697,7 +54836,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>222</v>
       </c>
@@ -50714,7 +54853,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>223</v>
       </c>
@@ -50731,7 +54870,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>224</v>
       </c>
@@ -50748,7 +54887,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>225</v>
       </c>
@@ -50765,7 +54904,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>226</v>
       </c>
@@ -50782,7 +54921,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>227</v>
       </c>
@@ -50799,7 +54938,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>228</v>
       </c>
@@ -50829,12 +54968,12 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -50869,7 +55008,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44562</v>
       </c>
@@ -50912,7 +55051,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44593</v>
       </c>
@@ -50955,7 +55094,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44621</v>
       </c>
@@ -50998,7 +55137,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44652</v>
       </c>
@@ -51041,7 +55180,7 @@
         <v>21256.230709876545</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44682</v>
       </c>
@@ -51084,7 +55223,7 @@
         <v>145.79516696336867</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44713</v>
       </c>
@@ -51104,7 +55243,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44743</v>
       </c>
@@ -51124,7 +55263,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44774</v>
       </c>
@@ -51144,7 +55283,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44805</v>
       </c>
@@ -51164,7 +55303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44835</v>
       </c>
@@ -51184,7 +55323,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>44866</v>
       </c>
@@ -51204,7 +55343,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44896</v>
       </c>
@@ -51224,7 +55363,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>44927</v>
       </c>
@@ -51244,7 +55383,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>44958</v>
       </c>
@@ -51264,7 +55403,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44986</v>
       </c>
@@ -51284,7 +55423,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>45017</v>
       </c>
@@ -51304,7 +55443,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>45047</v>
       </c>
@@ -51324,7 +55463,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>45078</v>
       </c>
@@ -51344,7 +55483,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>45108</v>
       </c>
@@ -51364,7 +55503,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>45139</v>
       </c>
@@ -51384,7 +55523,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>45170</v>
       </c>
@@ -51404,7 +55543,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>45200</v>
       </c>
@@ -51424,7 +55563,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>45231</v>
       </c>
@@ -51444,7 +55583,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>45261</v>
       </c>
@@ -51464,7 +55603,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>45292</v>
       </c>
@@ -51484,7 +55623,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>45323</v>
       </c>
@@ -51504,7 +55643,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>45352</v>
       </c>
@@ -51524,7 +55663,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>45383</v>
       </c>
@@ -51544,7 +55683,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>45413</v>
       </c>
@@ -51564,7 +55703,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>45444</v>
       </c>
@@ -51584,7 +55723,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>45474</v>
       </c>
@@ -51604,7 +55743,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>45505</v>
       </c>
@@ -51624,7 +55763,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>45536</v>
       </c>
@@ -51644,7 +55783,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>45566</v>
       </c>
@@ -51664,7 +55803,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>45597</v>
       </c>
@@ -51684,7 +55823,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>45627</v>
       </c>
@@ -51720,9 +55859,9 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -51742,7 +55881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -51762,7 +55901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -51782,7 +55921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -51802,7 +55941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -51822,7 +55961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -51842,7 +55981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -51862,7 +56001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -51882,7 +56021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -51902,7 +56041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
@@ -51922,7 +56061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
@@ -51942,7 +56081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -51962,7 +56101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
@@ -51982,7 +56121,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>61</v>
       </c>
@@ -52002,7 +56141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -52022,7 +56161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
@@ -52042,7 +56181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
@@ -52062,7 +56201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -52082,7 +56221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
@@ -52102,7 +56241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>73</v>
       </c>
@@ -52122,7 +56261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>75</v>
       </c>
@@ -52151,19 +56290,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -52180,7 +56319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
@@ -52200,7 +56339,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>82</v>
       </c>
@@ -52220,7 +56359,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>84</v>
       </c>
@@ -52240,7 +56379,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>86</v>
       </c>
@@ -52260,7 +56399,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>88</v>
       </c>
@@ -52280,7 +56419,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>90</v>
       </c>
@@ -52300,7 +56439,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
@@ -52317,7 +56456,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>94</v>
       </c>
@@ -52334,7 +56473,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -52351,7 +56490,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
@@ -52368,7 +56507,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
@@ -52385,7 +56524,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
@@ -52402,7 +56541,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>86</v>
       </c>
@@ -52419,7 +56558,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -52436,7 +56575,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>90</v>
       </c>
@@ -52453,7 +56592,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
@@ -52470,7 +56609,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>94</v>
       </c>
@@ -52487,7 +56626,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>96</v>
       </c>
@@ -52504,7 +56643,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -52521,7 +56660,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>

--- a/estatistica/lista de exercicios/Lista de Exercicios.xlsx
+++ b/estatistica/lista de exercicios/Lista de Exercicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cifais\Desktop\pos\Projetos_R\estatistica\lista de exercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ead\Desktop\Thiago\Projetos_R\estatistica\lista de exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198A9045-51BC-4C10-9CAF-FC27BD6A77F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1029768-78F6-4B1F-B22E-5F71CE092BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-90" windowWidth="23250" windowHeight="12570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,20 @@
     <sheet name="Carros" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Empresa!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Empresa!$B$2:$B$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Empresa!$E$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Empresa!$E$2:$E$21</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Satisfação!$C$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Satisfação!$C$2:$C$21</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Satisfação!$D$1</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Satisfação!$D$2:$D$21</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">Satisfação!$E$1</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Satisfação!$E$2:$E$21</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Empresa!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Empresa!$C$2:$C$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Empresa!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Empresa!$D$2:$D$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Empresa!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Empresa!$E$2:$E$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Empresa!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Empresa!$D$2:$D$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Empresa!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Empresa!$B$2:$B$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Empresa!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Empresa!$C$2:$C$22</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Satisfação!$B$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Satisfação!$B$2:$B$21</definedName>
   </definedNames>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="273">
   <si>
     <t>Cliente</t>
   </si>
@@ -853,6 +853,24 @@
   <si>
     <t>MENOR VALOR</t>
   </si>
+  <si>
+    <t>CORRELAÇÃO</t>
+  </si>
+  <si>
+    <t>IDADE</t>
+  </si>
+  <si>
+    <t>RENDA</t>
+  </si>
+  <si>
+    <t>NIVEL DE EDUCAÇAO</t>
+  </si>
+  <si>
+    <t>NUMERO DE FILHOS</t>
+  </si>
+  <si>
+    <t>NIVEL DE EDUCAÇÃO</t>
+  </si>
 </sst>
 </file>
 
@@ -921,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,6 +996,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -25071,6 +25092,2494 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>IDADE VS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> RENDA</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Idade (anos)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perfil!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Leonardo Mendes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mariana Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guilherme Silva</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vanessa Santos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rafael Pereira</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Letícia Costa</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anderson Souza</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Laura Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gustavo Lima</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Amanda Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bruno Almeida</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Carolina Vieira</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Matheus Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fernanda Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexandre Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renata Martins</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Lucas Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Luana Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Ricardo Santos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Camila Alves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ED7-4FB2-BC4E-F6CDD82A65A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="970070128"/>
+        <c:axId val="971273440"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Renda (R$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perfil!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Leonardo Mendes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mariana Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guilherme Silva</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vanessa Santos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rafael Pereira</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Letícia Costa</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anderson Souza</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Laura Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gustavo Lima</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Amanda Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bruno Almeida</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Carolina Vieira</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Matheus Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fernanda Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexandre Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renata Martins</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Lucas Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Luana Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Ricardo Santos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Camila Alves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3ED7-4FB2-BC4E-F6CDD82A65A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="970098528"/>
+        <c:axId val="971278432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="970070128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971273440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="971273440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970070128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="971278432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970098528"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="970098528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="971278432"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>EDUCAÇÃO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> VS NUMERO DE FILHOS</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nível de Educação (anos de estudo)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perfil!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Leonardo Mendes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mariana Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guilherme Silva</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vanessa Santos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rafael Pereira</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Letícia Costa</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anderson Souza</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Laura Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gustavo Lima</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Amanda Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bruno Almeida</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Carolina Vieira</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Matheus Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fernanda Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexandre Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renata Martins</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Lucas Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Luana Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Ricardo Santos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Camila Alves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-221B-4707-BFF2-ED24547E7C75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1044603744"/>
+        <c:axId val="1049993296"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Número de Filhos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perfil!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Leonardo Mendes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mariana Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guilherme Silva</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vanessa Santos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rafael Pereira</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Letícia Costa</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anderson Souza</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Laura Fernandes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gustavo Lima</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Amanda Rodrigues</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bruno Almeida</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Carolina Vieira</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Matheus Ribeiro</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fernanda Gonçalves</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alexandre Carvalho</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Renata Martins</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Lucas Oliveira</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Luana Ferreira</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Ricardo Santos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Camila Alves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-221B-4707-BFF2-ED24547E7C75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1044589744"/>
+        <c:axId val="1049988720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1044603744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049993296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1049993296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044603744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1049988720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044589744"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1044589744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1049988720"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>CORRELAÇÕES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$G$10:$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CORRELAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IDADE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perfil!$F$12:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>IDADE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RENDA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NIVEL DE EDUCAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NUMERO DE FILHOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$G$12:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9098249489708462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91116437101707137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85133368332781745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCA3-42F6-9564-5EE9853035EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$H$10:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CORRELAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RENDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perfil!$F$12:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>IDADE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RENDA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NIVEL DE EDUCAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NUMERO DE FILHOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$H$12:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.9098249489708462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9168957160991692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91113121079346693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DCA3-42F6-9564-5EE9853035EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$I$10:$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CORRELAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NIVEL DE EDUCAÇAO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perfil!$F$12:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>IDADE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RENDA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NIVEL DE EDUCAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NUMERO DE FILHOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$I$12:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.91116437101707137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9168957160991692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85568962375661217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DCA3-42F6-9564-5EE9853035EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perfil!$J$10:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CORRELAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NUMERO DE FILHOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perfil!$F$12:$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>IDADE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RENDA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NIVEL DE EDUCAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NUMERO DE FILHOS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perfil!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.85133368332781745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91113121079346693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85568962375661217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DCA3-42F6-9564-5EE9853035EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1066117664"/>
+        <c:axId val="1053189568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1066117664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1053189568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1053189568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1066117664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -31258,7 +33767,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -31296,7 +33805,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4D441A52-DC58-4BE8-9152-83D2784EB368}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Receita Anual (em milhões de R$)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -31332,7 +33841,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -31370,7 +33879,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AB864B0E-B4C0-4A43-AE1D-E9DCDEB76343}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Despesas Anuais (em milhões de R$)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -31413,7 +33922,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -31451,7 +33960,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A425CAD9-AC0A-43B7-8D23-8805B7F245BF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Lucro Anual (em milhões de R$)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -31482,7 +33991,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -31520,7 +34029,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A2C42036-6079-4AC4-86DA-16743DF36A98}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Número de Funcionários</cx:v>
             </cx:txData>
           </cx:tx>
@@ -32642,6 +35151,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -46610,6 +49239,1528 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -50502,8 +54653,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8648700" y="13402627"/>
-              <a:ext cx="5029200" cy="2636520"/>
+              <a:off x="8410575" y="14149387"/>
+              <a:ext cx="4914900" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -50580,8 +54731,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8639175" y="16067722"/>
-              <a:ext cx="5029200" cy="2628900"/>
+              <a:off x="8401050" y="16921162"/>
+              <a:ext cx="4914900" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -50658,8 +54809,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13696950" y="13374052"/>
-              <a:ext cx="4705350" cy="2636520"/>
+              <a:off x="13344525" y="14120812"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -50736,8 +54887,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13716000" y="16029622"/>
-              <a:ext cx="4705350" cy="2628900"/>
+              <a:off x="13363575" y="16883062"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -51009,8 +55160,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7404734" y="4249102"/>
-              <a:ext cx="5951221" cy="2709863"/>
+              <a:off x="7219949" y="4424362"/>
+              <a:ext cx="5791201" cy="2824163"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -51188,6 +55339,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E5AAE1-102F-4316-9777-4857E8F81976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7F0766-95F0-4F2D-A6C5-827356237C49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFBF4A3-0CAD-4E2D-96D7-9005237CC657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -51499,18 +55758,18 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
     <col min="2" max="6" width="14" style="1"/>
-    <col min="7" max="7" width="0.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="0.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="0.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -51549,7 +55808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>109</v>
       </c>
@@ -51596,7 +55855,7 @@
         <v>758.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>110</v>
       </c>
@@ -51643,7 +55902,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>111</v>
       </c>
@@ -51690,7 +55949,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>112</v>
       </c>
@@ -51737,7 +55996,7 @@
         <v>8032.75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>113</v>
       </c>
@@ -51784,7 +56043,7 @@
         <v>89.625610179233931</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>114</v>
       </c>
@@ -51831,7 +56090,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>115</v>
       </c>
@@ -51878,7 +56137,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>116</v>
       </c>
@@ -51913,7 +56172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>117</v>
       </c>
@@ -51948,7 +56207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>118</v>
       </c>
@@ -51983,7 +56242,7 @@
         <v>0.9098249489708462</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>119</v>
       </c>
@@ -52018,7 +56277,7 @@
         <v>0.91962698721380587</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>120</v>
       </c>
@@ -52053,7 +56312,7 @@
         <v>0.91357879785432783</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>121</v>
       </c>
@@ -52088,7 +56347,7 @@
         <v>0.99634806712629098</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>122</v>
       </c>
@@ -52123,7 +56382,7 @@
         <v>0.95681794276563403</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>123</v>
       </c>
@@ -52158,7 +56417,7 @@
         <v>0.95926551707199659</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>124</v>
       </c>
@@ -52186,7 +56445,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>125</v>
       </c>
@@ -52214,7 +56473,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>126</v>
       </c>
@@ -52242,7 +56501,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>127</v>
       </c>
@@ -52270,7 +56529,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>128</v>
       </c>
@@ -52311,16 +56570,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>149</v>
       </c>
@@ -52350,7 +56609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>129</v>
       </c>
@@ -52386,7 +56645,7 @@
         <v>214.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>130</v>
       </c>
@@ -52422,7 +56681,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>131</v>
       </c>
@@ -52458,7 +56717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>132</v>
       </c>
@@ -52494,7 +56753,7 @@
         <v>1655.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>133</v>
       </c>
@@ -52530,7 +56789,7 @@
         <v>40.69014008331748</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>134</v>
       </c>
@@ -52566,7 +56825,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>135</v>
       </c>
@@ -52602,7 +56861,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>136</v>
       </c>
@@ -52638,7 +56897,7 @@
         <v>0.94477822517932841</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>137</v>
       </c>
@@ -52674,7 +56933,7 @@
         <v>0.93321245848182599</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>138</v>
       </c>
@@ -52710,7 +56969,7 @@
         <v>0.60344704409834737</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>139</v>
       </c>
@@ -52746,7 +57005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>140</v>
       </c>
@@ -52767,7 +57026,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>141</v>
       </c>
@@ -52794,7 +57053,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>142</v>
       </c>
@@ -52821,7 +57080,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>143</v>
       </c>
@@ -52848,7 +57107,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>144</v>
       </c>
@@ -52865,7 +57124,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>145</v>
       </c>
@@ -52882,7 +57141,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>146</v>
       </c>
@@ -52899,7 +57158,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>147</v>
       </c>
@@ -52916,7 +57175,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>148</v>
       </c>
@@ -52947,15 +57206,15 @@
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -52985,7 +57244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>150</v>
       </c>
@@ -53021,7 +57280,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>151</v>
       </c>
@@ -53057,7 +57316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>152</v>
       </c>
@@ -53093,7 +57352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>153</v>
       </c>
@@ -53129,7 +57388,7 @@
         <v>0.74749999999999983</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>154</v>
       </c>
@@ -53165,7 +57424,7 @@
         <v>0.86458082328952901</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>155</v>
       </c>
@@ -53201,7 +57460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
@@ -53237,7 +57496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>157</v>
       </c>
@@ -53254,7 +57513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>158</v>
       </c>
@@ -53271,7 +57530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>159</v>
       </c>
@@ -53288,7 +57547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
@@ -53305,7 +57564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>161</v>
       </c>
@@ -53322,7 +57581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>162</v>
       </c>
@@ -53339,7 +57598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>163</v>
       </c>
@@ -53356,7 +57615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -53373,7 +57632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>165</v>
       </c>
@@ -53390,7 +57649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
@@ -53407,7 +57666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>167</v>
       </c>
@@ -53424,7 +57683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>168</v>
       </c>
@@ -53441,7 +57700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>169</v>
       </c>
@@ -53469,19 +57728,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="14" style="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" style="1"/>
+    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -53510,7 +57772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>170</v>
       </c>
@@ -53546,7 +57808,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -53582,7 +57844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>172</v>
       </c>
@@ -53618,7 +57880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>173</v>
       </c>
@@ -53654,7 +57916,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>174</v>
       </c>
@@ -53690,7 +57952,7 @@
         <v>1.0535653752852738</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>175</v>
       </c>
@@ -53726,7 +57988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>176</v>
       </c>
@@ -53762,7 +58024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>177</v>
       </c>
@@ -53779,7 +58041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>178</v>
       </c>
@@ -53795,8 +58057,14 @@
       <c r="E10" s="4">
         <v>3</v>
       </c>
+      <c r="G10" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -53812,8 +58080,20 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>180</v>
       </c>
@@ -53829,8 +58109,27 @@
       <c r="E12" s="4">
         <v>1</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" s="19">
+        <f>CORREL($B2:$B21,B2:B21)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" ref="H12:J12" si="2">CORREL($B2:$B21,C2:C21)</f>
+        <v>0.9098249489708462</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="2"/>
+        <v>0.91116437101707137</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="2"/>
+        <v>0.85133368332781745</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>181</v>
       </c>
@@ -53846,8 +58145,27 @@
       <c r="E13" s="4">
         <v>1</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="19">
+        <f>CORREL($C2:$C21,B2:B21)</f>
+        <v>0.9098249489708462</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" ref="H13:J13" si="3">CORREL($C2:$C21,C2:C21)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="3"/>
+        <v>0.9168957160991692</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="3"/>
+        <v>0.91113121079346693</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>182</v>
       </c>
@@ -53863,8 +58181,27 @@
       <c r="E14" s="4">
         <v>2</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="19">
+        <f>CORREL($D2:$D21,B2:B21)</f>
+        <v>0.91116437101707137</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" ref="H14:J14" si="4">CORREL($D2:$D21,C2:C21)</f>
+        <v>0.9168957160991692</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="4"/>
+        <v>0.85568962375661217</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>183</v>
       </c>
@@ -53880,8 +58217,27 @@
       <c r="E15" s="4">
         <v>1</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="19">
+        <f>CORREL($E2:$E21,B2:B21)</f>
+        <v>0.85133368332781745</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" ref="H15:J15" si="5">CORREL($E2:$E21,C2:C21)</f>
+        <v>0.91113121079346693</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="5"/>
+        <v>0.85568962375661217</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>184</v>
       </c>
@@ -53898,7 +58254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
@@ -53915,7 +58271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>186</v>
       </c>
@@ -53932,7 +58288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>187</v>
       </c>
@@ -53949,7 +58305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>188</v>
       </c>
@@ -53966,7 +58322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>189</v>
       </c>
@@ -53984,8 +58340,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G10:J10"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -53998,15 +58357,15 @@
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>149</v>
       </c>
@@ -54035,7 +58394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>190</v>
       </c>
@@ -54071,7 +58430,7 @@
         <v>7.6980000000000022</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>191</v>
       </c>
@@ -54107,7 +58466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>192</v>
       </c>
@@ -54143,7 +58502,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>193</v>
       </c>
@@ -54179,7 +58538,7 @@
         <v>0.65569599999997086</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>194</v>
       </c>
@@ -54215,7 +58574,7 @@
         <v>0.80975057888214619</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>195</v>
       </c>
@@ -54232,7 +58591,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>196</v>
       </c>
@@ -54249,7 +58608,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>197</v>
       </c>
@@ -54266,7 +58625,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>198</v>
       </c>
@@ -54283,7 +58642,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>199</v>
       </c>
@@ -54300,7 +58659,7 @@
         <v>8.67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>200</v>
       </c>
@@ -54317,7 +58676,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>201</v>
       </c>
@@ -54334,7 +58693,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>202</v>
       </c>
@@ -54351,7 +58710,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>203</v>
       </c>
@@ -54368,7 +58727,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>204</v>
       </c>
@@ -54385,7 +58744,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>205</v>
       </c>
@@ -54402,7 +58761,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>206</v>
       </c>
@@ -54419,7 +58778,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>207</v>
       </c>
@@ -54436,7 +58795,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>208</v>
       </c>
@@ -54453,7 +58812,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>209</v>
       </c>
@@ -54483,15 +58842,15 @@
       <selection activeCell="F6" activeCellId="1" sqref="F2:F6 F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="1" customWidth="1"/>
     <col min="2" max="5" width="14" style="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -54520,7 +58879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>210</v>
       </c>
@@ -54556,7 +58915,7 @@
         <v>4.5299999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>211</v>
       </c>
@@ -54592,7 +58951,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>212</v>
       </c>
@@ -54628,7 +58987,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>213</v>
       </c>
@@ -54664,7 +59023,7 @@
         <v>7.0100000000000023E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>166</v>
       </c>
@@ -54700,7 +59059,7 @@
         <v>0.2647640458974746</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -54717,7 +59076,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -54734,7 +59093,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>216</v>
       </c>
@@ -54751,7 +59110,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>217</v>
       </c>
@@ -54768,7 +59127,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>218</v>
       </c>
@@ -54785,7 +59144,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>219</v>
       </c>
@@ -54802,7 +59161,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>220</v>
       </c>
@@ -54819,7 +59178,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>221</v>
       </c>
@@ -54836,7 +59195,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>222</v>
       </c>
@@ -54853,7 +59212,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>223</v>
       </c>
@@ -54870,7 +59229,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>224</v>
       </c>
@@ -54887,7 +59246,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>225</v>
       </c>
@@ -54904,7 +59263,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>226</v>
       </c>
@@ -54921,7 +59280,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>227</v>
       </c>
@@ -54938,7 +59297,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>228</v>
       </c>
@@ -54968,12 +59327,12 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -55008,7 +59367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44562</v>
       </c>
@@ -55051,7 +59410,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44593</v>
       </c>
@@ -55094,7 +59453,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44621</v>
       </c>
@@ -55137,7 +59496,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44652</v>
       </c>
@@ -55180,7 +59539,7 @@
         <v>21256.230709876545</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44682</v>
       </c>
@@ -55223,7 +59582,7 @@
         <v>145.79516696336867</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44713</v>
       </c>
@@ -55243,7 +59602,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44743</v>
       </c>
@@ -55263,7 +59622,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44774</v>
       </c>
@@ -55283,7 +59642,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44805</v>
       </c>
@@ -55303,7 +59662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44835</v>
       </c>
@@ -55323,7 +59682,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44866</v>
       </c>
@@ -55343,7 +59702,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44896</v>
       </c>
@@ -55363,7 +59722,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44927</v>
       </c>
@@ -55383,7 +59742,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44958</v>
       </c>
@@ -55403,7 +59762,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44986</v>
       </c>
@@ -55423,7 +59782,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45017</v>
       </c>
@@ -55443,7 +59802,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>45047</v>
       </c>
@@ -55463,7 +59822,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>45078</v>
       </c>
@@ -55483,7 +59842,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>45108</v>
       </c>
@@ -55503,7 +59862,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45139</v>
       </c>
@@ -55523,7 +59882,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>45170</v>
       </c>
@@ -55543,7 +59902,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>45200</v>
       </c>
@@ -55563,7 +59922,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>45231</v>
       </c>
@@ -55583,7 +59942,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>45261</v>
       </c>
@@ -55603,7 +59962,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>45292</v>
       </c>
@@ -55623,7 +59982,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>45323</v>
       </c>
@@ -55643,7 +60002,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>45352</v>
       </c>
@@ -55663,7 +60022,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45383</v>
       </c>
@@ -55683,7 +60042,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>45413</v>
       </c>
@@ -55703,7 +60062,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>45444</v>
       </c>
@@ -55723,7 +60082,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>45474</v>
       </c>
@@ -55743,7 +60102,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>45505</v>
       </c>
@@ -55763,7 +60122,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>45536</v>
       </c>
@@ -55783,7 +60142,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>45566</v>
       </c>
@@ -55803,7 +60162,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>45597</v>
       </c>
@@ -55823,7 +60182,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>45627</v>
       </c>
@@ -55844,7 +60203,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F37">
+  <sortState ref="F2:F37">
     <sortCondition ref="F2:F37"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -55859,9 +60218,9 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -55881,7 +60240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -55901,7 +60260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
@@ -55921,7 +60280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -55941,7 +60300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>42</v>
       </c>
@@ -55961,7 +60320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -55981,7 +60340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
@@ -56001,7 +60360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -56021,7 +60380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -56041,7 +60400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
@@ -56061,7 +60420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>56</v>
       </c>
@@ -56081,7 +60440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -56101,7 +60460,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
@@ -56121,7 +60480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>61</v>
       </c>
@@ -56141,7 +60500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -56161,7 +60520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
@@ -56181,7 +60540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
@@ -56201,7 +60560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>69</v>
       </c>
@@ -56221,7 +60580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
@@ -56241,7 +60600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>73</v>
       </c>
@@ -56261,7 +60620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>75</v>
       </c>
@@ -56294,15 +60653,15 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -56319,7 +60678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
@@ -56339,7 +60698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>82</v>
       </c>
@@ -56359,7 +60718,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>84</v>
       </c>
@@ -56379,7 +60738,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>86</v>
       </c>
@@ -56399,7 +60758,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>88</v>
       </c>
@@ -56419,7 +60778,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>90</v>
       </c>
@@ -56439,7 +60798,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
@@ -56456,7 +60815,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>94</v>
       </c>
@@ -56473,7 +60832,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>96</v>
       </c>
@@ -56490,7 +60849,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>80</v>
       </c>
@@ -56507,7 +60866,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
@@ -56524,7 +60883,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
@@ -56541,7 +60900,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>86</v>
       </c>
@@ -56558,7 +60917,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -56575,7 +60934,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>90</v>
       </c>
@@ -56592,7 +60951,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>92</v>
       </c>
@@ -56609,7 +60968,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>94</v>
       </c>
@@ -56626,7 +60985,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>96</v>
       </c>
@@ -56643,7 +61002,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -56660,7 +61019,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
